--- a/Doc/LOG/LogTemplate - Francesco Catani.xlsx
+++ b/Doc/LOG/LogTemplate - Francesco Catani.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Personal Journal</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>Implementazione Invio Segnali</t>
+  </si>
+  <si>
+    <t>Revisione Documentazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio Implementazione per Codice (Thread ecc..) </t>
+  </si>
+  <si>
+    <t>Revisione Documentazione e Codice</t>
+  </si>
+  <si>
+    <t>Bug Fix</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -635,9 +647,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="61" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1722,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2336,23 +2345,166 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" ht="13.65" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+    <row r="31" ht="24.65" customHeight="1">
+      <c r="A31" s="25">
+        <v>1</v>
+      </c>
+      <c r="B31" s="25">
+        <v>4</v>
+      </c>
+      <c r="C31" s="29">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="D31" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="24.65" customHeight="1">
+      <c r="A32" s="25">
+        <v>1</v>
+      </c>
+      <c r="B32" s="25">
+        <v>8</v>
+      </c>
+      <c r="C32" s="29">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="D32" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="24.65" customHeight="1">
+      <c r="A33" s="25">
+        <v>1</v>
+      </c>
+      <c r="B33" s="25">
+        <v>9</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="D33" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s" s="26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="35.65" customHeight="1">
+      <c r="A34" s="25">
+        <v>1</v>
+      </c>
+      <c r="B34" s="25">
+        <v>10</v>
+      </c>
+      <c r="C34" s="29">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="D34" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="13.65" customHeight="1">
+      <c r="A35" s="25">
+        <v>1</v>
+      </c>
+      <c r="B35" s="25">
+        <v>11</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="D35" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s" s="26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" ht="24.65" customHeight="1">
+      <c r="A36" s="25">
+        <v>1</v>
+      </c>
+      <c r="B36" s="25">
+        <v>15</v>
+      </c>
+      <c r="C36" s="29">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="D36" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="35.65" customHeight="1">
+      <c r="A37" s="25">
+        <v>1</v>
+      </c>
+      <c r="B37" s="25">
+        <v>17</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="D37" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s" s="26">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
